--- a/Menutest/menusmoketest.xlsx
+++ b/Menutest/menusmoketest.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Workspace\testing\selenium\Menutest\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{9A386AA9-3EEF-4656-A5BE-1DEA3E75F0DC}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{4EED9E1F-6943-45B5-AB4F-5D84288E1E40}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="28680" yWindow="-120" windowWidth="29040" windowHeight="15720" tabRatio="583" activeTab="1" xr2:uid="{9176B4BB-C2DA-497C-BC7B-888F69EBF9E9}"/>
+    <workbookView xWindow="57480" yWindow="-120" windowWidth="29040" windowHeight="15720" tabRatio="583" xr2:uid="{9176B4BB-C2DA-497C-BC7B-888F69EBF9E9}"/>
   </bookViews>
   <sheets>
     <sheet name="Expect" sheetId="6" r:id="rId1"/>
@@ -2690,9 +2690,9 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{5E74A665-651A-40B8-84D5-87AF8A62296F}">
   <dimension ref="A1:N687"/>
   <sheetViews>
-    <sheetView zoomScaleNormal="100" workbookViewId="0">
-      <pane ySplit="1" topLeftCell="A651" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="P680" sqref="P680"/>
+    <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
+      <pane ySplit="1" topLeftCell="A657" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="L686" sqref="L686"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -29286,8 +29286,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{93EEAC22-687A-4B2C-929A-C2C0B2B5DDA7}">
   <dimension ref="A1:N12"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="D13" sqref="D13"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="H15" sqref="H15"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
